--- a/Projeto3/hiv.xlsx
+++ b/Projeto3/hiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="325">
   <si>
     <t>Country</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Angola</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
     <t>Anguilla</t>
   </si>
   <si>
@@ -83,15 +80,9 @@
     <t>Argentina</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>Aruba</t>
   </si>
   <si>
@@ -107,27 +98,15 @@
     <t>data from: http://nacoonline.org/upload/REPORTS/NACO%20Annual%20Report%202010-11.pdf</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>Bahamas</t>
   </si>
   <si>
     <t>Indicator name</t>
   </si>
   <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
     <t>Bahrain</t>
   </si>
   <si>
@@ -140,9 +119,6 @@
     <t>Barbados</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
     <t>Belarus</t>
   </si>
   <si>
@@ -158,21 +134,12 @@
     <t>Belize</t>
   </si>
   <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>Benin</t>
   </si>
   <si>
     <t>Unit of measurement</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>Bermuda</t>
   </si>
   <si>
@@ -188,15 +155,6 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
-    <t>23.7</t>
-  </si>
-  <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>Indicator-settings in the graph</t>
   </si>
   <si>
@@ -221,42 +179,18 @@
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>UNAIDS online database</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -272,9 +206,6 @@
     <t>Source name</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Based on UNAIDS</t>
   </si>
   <si>
@@ -287,21 +218,9 @@
     <t>Required! Text that will be shown next to the axis in the graph (preferably the same as in  the "Source organization(s)" field in the About-Sheet).</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
     <t>Channel Islands</t>
   </si>
   <si>
@@ -320,9 +239,6 @@
     <t>Source link</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -344,9 +260,6 @@
     <t>Scale type</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
@@ -356,9 +269,6 @@
     <t>Specific information about this indicator</t>
   </si>
   <si>
-    <t>Congo, Rep.</t>
-  </si>
-  <si>
     <t>Uploader</t>
   </si>
   <si>
@@ -371,9 +281,6 @@
     <t>26.04.2013</t>
   </si>
   <si>
-    <t>3.3</t>
-  </si>
-  <si>
     <t>Cook Is</t>
   </si>
   <si>
@@ -383,12 +290,6 @@
     <t>Cote d'Ivoire</t>
   </si>
   <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -419,21 +320,12 @@
     <t>Djibouti</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>Dominica</t>
   </si>
   <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
     <t>East Germany</t>
   </si>
   <si>
@@ -455,12 +347,6 @@
     <t>Equatorial Guinea</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
@@ -476,9 +362,6 @@
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
     <t>Faeroe Islands</t>
   </si>
   <si>
@@ -524,12 +407,6 @@
     <t>Gabon</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
@@ -572,21 +449,12 @@
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
     <t>Haiti</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>Holy See</t>
   </si>
   <si>
@@ -641,9 +509,6 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>6.2</t>
-  </si>
-  <si>
     <t>Kiribati</t>
   </si>
   <si>
@@ -677,15 +542,6 @@
     <t>Lesotho</t>
   </si>
   <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>23.3</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -713,15 +569,6 @@
     <t>Malawi</t>
   </si>
   <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -752,9 +599,6 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Fed. Sts.</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
@@ -776,24 +620,12 @@
     <t>Mozambique</t>
   </si>
   <si>
-    <t>11.3</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
     <t>Namibia</t>
   </si>
   <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>13.4</t>
-  </si>
-  <si>
     <t>Nauru</t>
   </si>
   <si>
@@ -824,12 +656,6 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
     <t>Niue</t>
   </si>
   <si>
@@ -896,27 +722,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>St. Barthélemy</t>
-  </si>
-  <si>
-    <t>St. Helena</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>St. Martin</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>St.-Pierre-et-Miquelon</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
@@ -968,12 +773,6 @@
     <t>South Africa</t>
   </si>
   <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
     <t>South Ossetia</t>
   </si>
   <si>
@@ -995,15 +794,6 @@
     <t>Swaziland</t>
   </si>
   <si>
-    <t>25.8</t>
-  </si>
-  <si>
-    <t>25.9</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1022,9 +812,6 @@
     <t>Tanzania</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -1034,9 +821,6 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>Tokelau</t>
   </si>
   <si>
@@ -1067,15 +851,6 @@
     <t>Uganda</t>
   </si>
   <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
     <t>Ukraine</t>
   </si>
   <si>
@@ -1118,9 +893,6 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
     <t>North Yemen (former)</t>
   </si>
   <si>
@@ -1136,27 +908,9 @@
     <t>Zambia</t>
   </si>
   <si>
-    <t>12.9</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>14.9</t>
-  </si>
-  <si>
     <t>Åland</t>
   </si>
   <si>
@@ -1175,9 +929,6 @@
     <t>Sint Maarten (Dutch part)</t>
   </si>
   <si>
-    <t>St. Martin (French part)</t>
-  </si>
-  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -1187,9 +938,6 @@
     <t>Hawaiian Trade Zone</t>
   </si>
   <si>
-    <t>U.S. Pacific Islands</t>
-  </si>
-  <si>
     <t>Wake Island</t>
   </si>
   <si>
@@ -1208,7 +956,49 @@
     <t>Saba</t>
   </si>
   <si>
-    <t>V2010</t>
+    <t>HIVs</t>
+  </si>
+  <si>
+    <t>LNHIVs</t>
+  </si>
+  <si>
+    <t>Congo, Dem, Rep,</t>
+  </si>
+  <si>
+    <t>Congo, Rep,</t>
+  </si>
+  <si>
+    <t>Micronesia, Fed, Sts,</t>
+  </si>
+  <si>
+    <t>St, Barthélemy</t>
+  </si>
+  <si>
+    <t>St, Helena</t>
+  </si>
+  <si>
+    <t>St, Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>St, Lucia</t>
+  </si>
+  <si>
+    <t>St, Martin</t>
+  </si>
+  <si>
+    <t>St, Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>St,-Pierre-et-Miquelon</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U,S,)</t>
+  </si>
+  <si>
+    <t>St, Martin (French part)</t>
+  </si>
+  <si>
+    <t>U,S, Pacific Islands</t>
   </si>
 </sst>
 </file>
@@ -1835,19 +1625,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH276"/>
+  <dimension ref="A1:AI283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="M86" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9:AI276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="34" width="10.85546875" customWidth="1"/>
+    <col min="35" max="35" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3">
         <v>1979</v>
@@ -1943,13 +1734,16 @@
         <v>1</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="AH1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI1" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +1780,12 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-    </row>
-    <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI2" s="5" t="e">
+        <f>LOG(AG2,2.718)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2030,8 +1828,12 @@
       <c r="AH3" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI3" s="5">
+        <f>LOG(AG3,2.718)</f>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2068,8 +1870,12 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-    </row>
-    <row r="5" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI4" s="5" t="e">
+        <f>LOG(AG4,2.718)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2106,8 +1912,12 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-    </row>
-    <row r="6" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI5" s="5" t="e">
+        <f>LOG(AG5,2.718)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2182,8 +1992,12 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
-    </row>
-    <row r="7" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI6" s="5" t="e">
+        <f t="shared" ref="AI6:AI69" si="0">LOG(AG6,2.718)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2220,8 +2034,12 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-    </row>
-    <row r="8" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2258,8 +2076,12 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-    </row>
-    <row r="9" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2333,19 +2155,23 @@
       <c r="AE9" s="3">
         <v>2</v>
       </c>
-      <c r="AF9" s="3" t="s">
+      <c r="AF9" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74201427993910007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2380,10 +2206,14 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-    </row>
-    <row r="11" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2418,10 +2248,14 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
-    </row>
-    <row r="12" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI11" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>2.0507979999999999E-2</v>
@@ -2493,19 +2327,23 @@
       <c r="AE12" s="3">
         <v>0.5</v>
       </c>
-      <c r="AF12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2575,19 +2413,23 @@
       <c r="AE13" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2622,10 +2464,14 @@
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-    </row>
-    <row r="15" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -2697,19 +2543,23 @@
       <c r="AE15" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2781,19 +2631,23 @@
       <c r="AE16" s="3">
         <v>0.3</v>
       </c>
-      <c r="AF16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2863,19 +2717,23 @@
       <c r="AE17" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
         <v>0.01</v>
@@ -2947,19 +2805,23 @@
       <c r="AE18" s="3">
         <v>3.1</v>
       </c>
-      <c r="AF18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0297261835898828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2994,10 +2856,14 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-    </row>
-    <row r="20" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -3076,10 +2942,14 @@
       <c r="AH20" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI20" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3">
         <v>2.767648E-2</v>
@@ -3151,19 +3021,23 @@
       <c r="AE21" s="3">
         <v>1.3</v>
       </c>
-      <c r="AF21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AI21" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.1053714410188776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3233,19 +3107,23 @@
       <c r="AE22" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI22" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -3317,19 +3195,23 @@
       <c r="AE23" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI23" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -3399,19 +3281,23 @@
       <c r="AE24" s="3">
         <v>2.4</v>
       </c>
-      <c r="AF24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH24" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AI24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.87555951910439733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3483,19 +3369,23 @@
       <c r="AE25" s="3">
         <v>1.2</v>
       </c>
-      <c r="AF25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AI25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18234046263190515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -3530,10 +3420,14 @@
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
-    </row>
-    <row r="27" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI26" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3603,19 +3497,23 @@
       <c r="AE27" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI27" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3685,19 +3583,23 @@
       <c r="AE28" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI28" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -3732,10 +3634,14 @@
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
-    </row>
-    <row r="30" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI29" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3">
         <v>0.105976053</v>
@@ -3807,19 +3713,23 @@
       <c r="AE30" s="3">
         <v>24.9</v>
       </c>
-      <c r="AF30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH30" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>24.1</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>23.7</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="AI30" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1658032921477135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3">
         <v>9.4479129999999995E-2</v>
@@ -3891,19 +3801,23 @@
       <c r="AE31" s="3">
         <v>0.45</v>
       </c>
-      <c r="AF31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI31" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3938,10 +3852,14 @@
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
-    </row>
-    <row r="33" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI32" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3976,10 +3894,14 @@
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
-    </row>
-    <row r="34" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI33" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4049,19 +3971,23 @@
       <c r="AE34" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH34" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3">
         <v>0.01</v>
@@ -4133,19 +4059,23 @@
       <c r="AE35" s="3">
         <v>1.2</v>
       </c>
-      <c r="AF35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH35" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.18234046263190515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3">
         <v>1.5913875000000001E-2</v>
@@ -4217,19 +4147,23 @@
       <c r="AE36" s="3">
         <v>3.5</v>
       </c>
-      <c r="AF36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH36" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF36" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="AI36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3365071271173905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4301,19 +4235,23 @@
       <c r="AE37" s="3">
         <v>0.6</v>
       </c>
-      <c r="AF37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH37" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF37" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AI37" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.51087859384058709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3">
@@ -4385,19 +4323,23 @@
       <c r="AE38" s="3">
         <v>5.3</v>
       </c>
-      <c r="AF38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH38" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF38" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AI38" s="5">
+        <f t="shared" si="0"/>
+        <v>1.547722983245315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3">
         <v>1.2998487E-2</v>
@@ -4469,19 +4411,23 @@
       <c r="AE39" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH39" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI39" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4513,19 +4459,23 @@
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
-      <c r="AF40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH40" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4560,10 +4510,14 @@
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
-    </row>
-    <row r="42" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI41" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B42" s="3">
         <v>0.113034777</v>
@@ -4635,19 +4589,23 @@
       <c r="AE42" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AF42" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH42" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AI42" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5894000008970777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B43" s="3">
         <v>3.9876698000000002E-2</v>
@@ -4719,19 +4677,23 @@
       <c r="AE43" s="3">
         <v>3.4</v>
       </c>
-      <c r="AF43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH43" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AI43" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1632714227551801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4766,10 +4728,14 @@
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
-    </row>
-    <row r="45" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI44" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4841,19 +4807,23 @@
       <c r="AE45" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH45" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI45" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.69321905647249227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4890,10 +4860,14 @@
       <c r="AH46" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="47" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI46" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4928,10 +4902,14 @@
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
-    </row>
-    <row r="48" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI47" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4966,10 +4944,14 @@
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
-    </row>
-    <row r="49" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI48" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5041,19 +5023,23 @@
       <c r="AE49" s="3">
         <v>0.5</v>
       </c>
-      <c r="AF49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH49" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI49" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.69321905647249227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5123,19 +5109,23 @@
       <c r="AE50" s="3">
         <v>0.06</v>
       </c>
-      <c r="AF50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH50" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI50" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5170,10 +5160,14 @@
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
-    </row>
-    <row r="52" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI51" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="B52" s="3">
         <v>0.01</v>
@@ -5245,19 +5239,23 @@
       <c r="AE52" s="3">
         <v>3.5</v>
       </c>
-      <c r="AF52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH52" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="AI52" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1940462722897744</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -5292,10 +5290,14 @@
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
-    </row>
-    <row r="54" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI53" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -5365,19 +5367,23 @@
       <c r="AE54" s="3">
         <v>0.3</v>
       </c>
-      <c r="AF54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH54" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI54" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B55" s="3">
         <v>0.12317837199999999</v>
@@ -5449,19 +5455,23 @@
       <c r="AE55" s="3">
         <v>3.7</v>
       </c>
-      <c r="AF55" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG55" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH55" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="AG55" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="AH55" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI55" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1632714227551801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -5540,10 +5550,14 @@
       <c r="AH56" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="57" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI56" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -5613,19 +5627,23 @@
       <c r="AE57" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH57" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH57" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI57" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -5660,10 +5678,14 @@
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
-    </row>
-    <row r="59" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI58" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5742,10 +5764,14 @@
       <c r="AH59" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI59" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -5780,10 +5806,14 @@
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
-    </row>
-    <row r="61" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI60" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5855,19 +5885,23 @@
       <c r="AE61" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH61" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH61" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI61" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -5939,19 +5973,23 @@
       <c r="AE62" s="3">
         <v>2.6</v>
       </c>
-      <c r="AF62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG62" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH62" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AH62" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AI62" s="5">
+        <f t="shared" si="0"/>
+        <v>0.40550715282170946</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -5986,10 +6024,14 @@
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
-    </row>
-    <row r="64" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI63" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B64" s="3">
         <v>5.6691281000000003E-2</v>
@@ -6061,19 +6103,23 @@
       <c r="AE64" s="3">
         <v>0.9</v>
       </c>
-      <c r="AF64" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH64" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH64" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AI64" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -6108,10 +6154,14 @@
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
-    </row>
-    <row r="66" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI65" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B66" s="3">
         <v>1.3690696E-2</v>
@@ -6183,19 +6233,23 @@
       <c r="AE66" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH66" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG66" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH66" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI66" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -6274,10 +6328,14 @@
       <c r="AH67" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="68" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI67" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -6349,19 +6407,23 @@
       <c r="AE68" s="3">
         <v>0.8</v>
       </c>
-      <c r="AF68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH68" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AH68" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AI68" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.51087859384058709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B69" s="3">
         <v>8.2364934000000001E-2</v>
@@ -6433,19 +6495,23 @@
       <c r="AE69" s="3">
         <v>4.7</v>
       </c>
-      <c r="AF69" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG69" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH69" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH69" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="AI69" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4817581759405574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -6517,19 +6583,23 @@
       <c r="AE70" s="3">
         <v>0.8</v>
       </c>
-      <c r="AF70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH70" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH70" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AI70" s="5">
+        <f t="shared" ref="AI70:AI133" si="1">LOG(AG70,2.718)</f>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -6564,10 +6634,14 @@
       <c r="AF71" s="5"/>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
-    </row>
-    <row r="72" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI71" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -6637,19 +6711,23 @@
       <c r="AE72" s="3">
         <v>1.2</v>
       </c>
-      <c r="AF72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG72" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH72" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AG72" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="AH72" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="AI72" s="5">
+        <f t="shared" si="1"/>
+        <v>0.26239147033582205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -6681,19 +6759,23 @@
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
-      <c r="AF73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH73" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AH73" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AI73" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47005236628268804</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -6728,10 +6810,14 @@
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
-    </row>
-    <row r="75" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI74" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -6766,10 +6852,14 @@
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
-    </row>
-    <row r="76" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI75" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -6845,13 +6935,17 @@
       <c r="AG76" s="3">
         <v>0.06</v>
       </c>
-      <c r="AH76" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH76" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI76" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -6923,19 +7017,23 @@
       <c r="AE77" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG77" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH77" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH77" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI77" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -7007,19 +7105,23 @@
       <c r="AE78" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH78" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI78" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -7054,10 +7156,14 @@
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
-    </row>
-    <row r="80" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI79" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -7092,10 +7198,14 @@
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
-    </row>
-    <row r="81" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI80" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B81" s="3">
         <v>4.2124436000000001E-2</v>
@@ -7167,19 +7277,23 @@
       <c r="AE81" s="3">
         <v>5.3</v>
       </c>
-      <c r="AF81" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG81" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH81" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AG81" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AH81" s="3">
+        <v>5</v>
+      </c>
+      <c r="AI81" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6294094838648532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -7249,19 +7363,23 @@
       <c r="AE82" s="3">
         <v>1.7</v>
       </c>
-      <c r="AF82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH82" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AG82" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AH82" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AI82" s="5">
+        <f t="shared" si="1"/>
+        <v>0.3365071271173905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -7331,19 +7449,23 @@
       <c r="AE83" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH83" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG83" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH83" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI83" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -7415,19 +7537,23 @@
       <c r="AE84" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH84" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH84" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI84" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -7497,19 +7623,23 @@
       <c r="AE85" s="3">
         <v>1.8</v>
       </c>
-      <c r="AF85" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG85" s="3" t="s">
+      <c r="AF85" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AH85" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AI85" s="5">
+        <f t="shared" si="1"/>
+        <v>0.40550715282170946</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="AH85" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -7544,10 +7674,14 @@
       <c r="AF86" s="5"/>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
-    </row>
-    <row r="87" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI86" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B87" s="3">
         <v>1.8909064E-2</v>
@@ -7619,19 +7753,23 @@
       <c r="AE87" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG87" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH87" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH87" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI87" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -7666,10 +7804,14 @@
       <c r="AF88" s="5"/>
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
-    </row>
-    <row r="89" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI88" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -7704,10 +7846,14 @@
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
-    </row>
-    <row r="90" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI89" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -7742,10 +7888,14 @@
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
-    </row>
-    <row r="91" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI90" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -7780,10 +7930,14 @@
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
-    </row>
-    <row r="92" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI91" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -7853,19 +8007,23 @@
       <c r="AE92" s="3">
         <v>0.8</v>
       </c>
-      <c r="AF92" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG92" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH92" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH92" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AI92" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -7900,10 +8058,14 @@
       <c r="AF93" s="5"/>
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
-    </row>
-    <row r="94" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI93" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B94" s="3">
         <v>1.5019429000000001E-2</v>
@@ -7975,19 +8137,23 @@
       <c r="AE94" s="3">
         <v>1.4</v>
       </c>
-      <c r="AF94" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG94" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH94" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AG94" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AH94" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AI94" s="5">
+        <f t="shared" si="1"/>
+        <v>0.3365071271173905</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -8059,19 +8225,23 @@
       <c r="AE95" s="3">
         <v>2.5</v>
       </c>
-      <c r="AF95" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG95" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH95" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG95" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="AH95" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="AI95" s="5">
+        <f t="shared" si="1"/>
+        <v>0.87555951910439733</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="B96" s="3">
         <v>3.0135016000000001E-2</v>
@@ -8143,19 +8313,23 @@
       <c r="AE96" s="3">
         <v>1.2</v>
       </c>
-      <c r="AF96" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG96" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH96" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH96" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI96" s="5">
+        <f t="shared" si="1"/>
+        <v>9.5320062995572885E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="B97" s="3">
         <v>0.15502645700000001</v>
@@ -8227,19 +8401,23 @@
       <c r="AE97" s="3">
         <v>2</v>
       </c>
-      <c r="AF97" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG97" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH97" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="AH97" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="AI97" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64192044322562136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -8274,10 +8452,14 @@
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
-    </row>
-    <row r="99" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI98" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B99" s="3">
         <v>0.01</v>
@@ -8352,10 +8534,14 @@
       <c r="AF99" s="5"/>
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
-    </row>
-    <row r="100" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI99" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -8390,10 +8576,14 @@
       <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
-    </row>
-    <row r="101" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI100" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -8463,19 +8653,23 @@
       <c r="AE101" s="3">
         <v>0.06</v>
       </c>
-      <c r="AF101" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG101" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH101" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH101" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI101" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B102" s="3">
         <v>1.2373161000000001E-2</v>
@@ -8547,19 +8741,23 @@
       <c r="AE102" s="3">
         <v>0.3</v>
       </c>
-      <c r="AF102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH102" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF102" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG102" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH102" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI102" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -8634,10 +8832,14 @@
       </c>
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
-    </row>
-    <row r="104" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI103" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -8707,19 +8909,23 @@
       <c r="AE104" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH104" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF104" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG104" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH104" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI104" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -8789,19 +8995,23 @@
       <c r="AE105" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH105" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI105" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -8836,10 +9046,14 @@
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
-    </row>
-    <row r="107" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI106" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -8911,19 +9125,23 @@
       <c r="AE107" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF107" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG107" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH107" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF107" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG107" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH107" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI107" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -8958,10 +9176,14 @@
       <c r="AF108" s="5"/>
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
-    </row>
-    <row r="109" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI108" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B109" s="3">
         <v>1.2167647E-2</v>
@@ -9033,19 +9255,23 @@
       <c r="AE109" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF109" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG109" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH109" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF109" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG109" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH109" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI109" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B110" s="3">
         <v>0.01</v>
@@ -9117,19 +9343,23 @@
       <c r="AE110" s="3">
         <v>0.3</v>
       </c>
-      <c r="AF110" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG110" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH110" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF110" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG110" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH110" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI110" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B111" s="3">
         <v>1.4488867000000001E-2</v>
@@ -9201,19 +9431,23 @@
       <c r="AE111" s="3">
         <v>1.7</v>
       </c>
-      <c r="AF111" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG111" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH111" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF111" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="AG111" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="AH111" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="AI111" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58784761545361464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -9292,10 +9526,14 @@
       <c r="AH112" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="113" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI112" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="113" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -9330,10 +9568,14 @@
       <c r="AF113" s="5"/>
       <c r="AG113" s="5"/>
       <c r="AH113" s="5"/>
-    </row>
-    <row r="114" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI113" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -9368,10 +9610,14 @@
       <c r="AF114" s="5"/>
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
-    </row>
-    <row r="115" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI114" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -9441,19 +9687,23 @@
       <c r="AE115" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF115" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG115" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH115" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF115" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG115" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH115" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI115" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="116" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="B116" s="3">
         <v>7.0000000000000007E-2</v>
@@ -9525,19 +9775,23 @@
       <c r="AE116" s="3">
         <v>6.3</v>
       </c>
-      <c r="AF116" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG116" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH116" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF116" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="AG116" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="AH116" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="AI116" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8247384887311033</v>
+      </c>
+    </row>
+    <row r="117" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -9572,10 +9826,14 @@
       <c r="AF117" s="5"/>
       <c r="AG117" s="5"/>
       <c r="AH117" s="5"/>
-    </row>
-    <row r="118" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI117" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -9610,10 +9868,14 @@
       <c r="AF118" s="5"/>
       <c r="AG118" s="5"/>
       <c r="AH118" s="5"/>
-    </row>
-    <row r="119" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI118" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -9692,10 +9954,14 @@
       <c r="AH119" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="120" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI119" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="120" spans="1:35" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -9730,10 +9996,14 @@
       <c r="AF120" s="5"/>
       <c r="AG120" s="5"/>
       <c r="AH120" s="5"/>
-    </row>
-    <row r="121" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI120" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -9768,10 +10038,14 @@
       <c r="AF121" s="5"/>
       <c r="AG121" s="5"/>
       <c r="AH121" s="5"/>
-    </row>
-    <row r="122" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI121" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -9806,10 +10080,14 @@
       <c r="AF122" s="5"/>
       <c r="AG122" s="5"/>
       <c r="AH122" s="5"/>
-    </row>
-    <row r="123" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI122" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -9879,19 +10157,23 @@
       <c r="AE123" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF123" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG123" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH123" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF123" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG123" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH123" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI123" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -9961,19 +10243,23 @@
       <c r="AE124" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF124" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG124" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH124" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF124" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG124" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH124" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI124" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -10043,19 +10329,23 @@
       <c r="AE125" s="3">
         <v>0.6</v>
       </c>
-      <c r="AF125" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG125" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH125" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF125" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AG125" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH125" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AI125" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="B126" s="3">
         <v>1.2167647E-2</v>
@@ -10127,19 +10417,23 @@
       <c r="AE126" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF126" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG126" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH126" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="127" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF126" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG126" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH126" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI126" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -10211,19 +10505,23 @@
       <c r="AE127" s="3">
         <v>23.6</v>
       </c>
-      <c r="AF127" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG127" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH127" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF127" s="3">
+        <v>23</v>
+      </c>
+      <c r="AG127" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="AH127" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="AI127" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1444783116138302</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B128" s="3">
         <v>1.185026E-2</v>
@@ -10295,19 +10593,23 @@
       <c r="AE128" s="3">
         <v>1.6</v>
       </c>
-      <c r="AF128" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG128" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH128" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF128" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="AG128" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH128" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI128" s="5">
+        <f t="shared" si="1"/>
+        <v>9.5320062995572885E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -10342,10 +10644,14 @@
       <c r="AF129" s="5"/>
       <c r="AG129" s="5"/>
       <c r="AH129" s="5"/>
-    </row>
-    <row r="130" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI129" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -10380,10 +10686,14 @@
       <c r="AF130" s="5"/>
       <c r="AG130" s="5"/>
       <c r="AH130" s="5"/>
-    </row>
-    <row r="131" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI130" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -10453,19 +10763,23 @@
       <c r="AE131" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF131" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG131" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH131" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF131" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG131" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH131" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI131" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B132" s="3">
         <v>1.3690696E-2</v>
@@ -10537,19 +10851,23 @@
       <c r="AE132" s="3">
         <v>0.3</v>
       </c>
-      <c r="AF132" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG132" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH132" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF132" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG132" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH132" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI132" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -10584,10 +10902,14 @@
       <c r="AF133" s="5"/>
       <c r="AG133" s="5"/>
       <c r="AH133" s="5"/>
-    </row>
-    <row r="134" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI133" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -10622,10 +10944,14 @@
       <c r="AF134" s="5"/>
       <c r="AG134" s="5"/>
       <c r="AH134" s="5"/>
-    </row>
-    <row r="135" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI134" s="5" t="e">
+        <f t="shared" ref="AI134:AI197" si="2">LOG(AG134,2.718)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -10695,19 +11021,23 @@
       <c r="AE135" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF135" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG135" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH135" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="136" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF135" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG135" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH135" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI135" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="3">
@@ -10779,19 +11109,23 @@
       <c r="AE136" s="3">
         <v>11.2</v>
       </c>
-      <c r="AF136" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG136" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH136" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="137" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF136" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="AG136" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="AH136" s="3">
+        <v>10</v>
+      </c>
+      <c r="AI136" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3420486397532989</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -10863,19 +11197,23 @@
       <c r="AE137" s="3">
         <v>0.5</v>
       </c>
-      <c r="AF137" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG137" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH137" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF137" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG137" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH137" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI137" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -10954,10 +11292,14 @@
       <c r="AH138" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="139" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI138" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -11029,19 +11371,23 @@
       <c r="AE139" s="3">
         <v>1</v>
       </c>
-      <c r="AF139" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG139" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH139" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="140" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF139" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AG139" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH139" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI139" s="5">
+        <f t="shared" si="2"/>
+        <v>9.5320062995572885E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -11111,19 +11457,23 @@
       <c r="AE140" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF140" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG140" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH140" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF140" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG140" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH140" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI140" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -11158,10 +11508,14 @@
       <c r="AF141" s="5"/>
       <c r="AG141" s="5"/>
       <c r="AH141" s="5"/>
-    </row>
-    <row r="142" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI141" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -11196,10 +11550,14 @@
       <c r="AF142" s="5"/>
       <c r="AG142" s="5"/>
       <c r="AH142" s="5"/>
-    </row>
-    <row r="143" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI142" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -11269,19 +11627,23 @@
       <c r="AE143" s="3">
         <v>0.7</v>
       </c>
-      <c r="AF143" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG143" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH143" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="144" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF143" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG143" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH143" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI143" s="5">
+        <f t="shared" si="2"/>
+        <v>9.5320062995572885E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -11351,19 +11713,23 @@
       <c r="AE144" s="3">
         <v>0.9</v>
       </c>
-      <c r="AF144" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG144" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH144" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="145" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF144" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG144" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH144" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI144" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -11398,10 +11764,14 @@
       <c r="AF145" s="5"/>
       <c r="AG145" s="5"/>
       <c r="AH145" s="5"/>
-    </row>
-    <row r="146" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI145" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B146" s="3">
         <v>3.1224740000000001E-2</v>
@@ -11473,19 +11843,23 @@
       <c r="AE146" s="3">
         <v>0.3</v>
       </c>
-      <c r="AF146" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG146" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH146" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF146" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG146" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH146" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI146" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="147" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -11520,10 +11894,14 @@
       <c r="AF147" s="5"/>
       <c r="AG147" s="5"/>
       <c r="AH147" s="5"/>
-    </row>
-    <row r="148" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI147" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -11593,19 +11971,23 @@
       <c r="AE148" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF148" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG148" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH148" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="149" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF148" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG148" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AH148" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI148" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.69321905647249227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -11640,10 +12022,14 @@
       <c r="AF149" s="5"/>
       <c r="AG149" s="5"/>
       <c r="AH149" s="5"/>
-    </row>
-    <row r="150" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI149" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -11722,10 +12108,14 @@
       <c r="AH150" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="151" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI150" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="151" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -11760,10 +12150,14 @@
       <c r="AF151" s="5"/>
       <c r="AG151" s="5"/>
       <c r="AH151" s="5"/>
-    </row>
-    <row r="152" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI151" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -11798,10 +12192,14 @@
       <c r="AF152" s="5"/>
       <c r="AG152" s="5"/>
       <c r="AH152" s="5"/>
-    </row>
-    <row r="153" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI152" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -11871,19 +12269,23 @@
       <c r="AE153" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF153" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG153" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH153" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF153" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG153" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH153" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI153" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="154" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B154" s="3">
         <v>7.5681075E-2</v>
@@ -11955,19 +12357,23 @@
       <c r="AE154" s="3">
         <v>11.4</v>
       </c>
-      <c r="AF154" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG154" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH154" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="155" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF154" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="AG154" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="AH154" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="AI154" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4250541656917166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -12039,19 +12445,23 @@
       <c r="AE155" s="3">
         <v>0.6</v>
       </c>
-      <c r="AF155" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG155" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH155" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="156" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF155" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AG155" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH155" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AI155" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="B156" s="3">
         <v>1.6749107999999999E-2</v>
@@ -12123,19 +12533,23 @@
       <c r="AE156" s="3">
         <v>13.7</v>
       </c>
-      <c r="AF156" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG156" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AH156" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="157" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF156" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="AG156" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="AH156" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="AI156" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6103404439881284</v>
+      </c>
+    </row>
+    <row r="157" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -12170,10 +12584,14 @@
       <c r="AF157" s="5"/>
       <c r="AG157" s="5"/>
       <c r="AH157" s="5"/>
-    </row>
-    <row r="158" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI157" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>257</v>
+        <v>201</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -12245,19 +12663,23 @@
       <c r="AE158" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF158" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG158" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH158" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF158" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG158" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH158" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI158" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="159" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -12329,19 +12751,23 @@
       <c r="AE159" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF159" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG159" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH159" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF159" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG159" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH159" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI159" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="160" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -12376,10 +12802,14 @@
       <c r="AF160" s="5"/>
       <c r="AG160" s="5"/>
       <c r="AH160" s="5"/>
-    </row>
-    <row r="161" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI160" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -12414,10 +12844,14 @@
       <c r="AF161" s="5"/>
       <c r="AG161" s="5"/>
       <c r="AH161" s="5"/>
-    </row>
-    <row r="162" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI161" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="162" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -12489,19 +12923,23 @@
       <c r="AE162" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF162" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG162" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH162" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="163" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF162" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG162" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH162" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI162" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -12536,10 +12974,14 @@
       <c r="AF163" s="5"/>
       <c r="AG163" s="5"/>
       <c r="AH163" s="5"/>
-    </row>
-    <row r="164" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI163" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -12611,19 +13053,23 @@
       <c r="AE164" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF164" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG164" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH164" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="165" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF164" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG164" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH164" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI164" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -12695,19 +13141,23 @@
       <c r="AE165" s="3">
         <v>0.8</v>
       </c>
-      <c r="AF165" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG165" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH165" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="166" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF165" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AG165" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AH165" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AI165" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.22316669018980423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="B166" s="3">
         <v>3.7979686999999998E-2</v>
@@ -12779,19 +13229,23 @@
       <c r="AE166" s="3">
         <v>3.6</v>
       </c>
-      <c r="AF166" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG166" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH166" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="167" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF166" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="AG166" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="AH166" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="AI166" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3084684872514689</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -12826,10 +13280,14 @@
       <c r="AF167" s="5"/>
       <c r="AG167" s="5"/>
       <c r="AH167" s="5"/>
-    </row>
-    <row r="168" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI167" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="168" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -12864,10 +13322,14 @@
       <c r="AF168" s="5"/>
       <c r="AG168" s="5"/>
       <c r="AH168" s="5"/>
-    </row>
-    <row r="169" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI168" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -12902,10 +13364,14 @@
       <c r="AF169" s="5"/>
       <c r="AG169" s="5"/>
       <c r="AH169" s="5"/>
-    </row>
-    <row r="170" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI169" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -12940,10 +13406,14 @@
       <c r="AF170" s="5"/>
       <c r="AG170" s="5"/>
       <c r="AH170" s="5"/>
-    </row>
-    <row r="171" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI170" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -13015,19 +13485,23 @@
       <c r="AE171" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF171" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG171" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH171" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="172" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF171" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG171" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH171" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI171" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="172" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -13100,10 +13574,14 @@
       <c r="AF172" s="5"/>
       <c r="AG172" s="5"/>
       <c r="AH172" s="5"/>
-    </row>
-    <row r="173" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI172" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -13173,19 +13651,23 @@
       <c r="AE173" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF173" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG173" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH173" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="174" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF173" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG173" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH173" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI173" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="174" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -13220,10 +13702,14 @@
       <c r="AF174" s="5"/>
       <c r="AG174" s="5"/>
       <c r="AH174" s="5"/>
-    </row>
-    <row r="175" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI174" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="B175" s="3">
         <v>4.6410767999999998E-2</v>
@@ -13295,19 +13781,23 @@
       <c r="AE175" s="3">
         <v>0.9</v>
       </c>
-      <c r="AF175" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG175" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH175" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="176" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF175" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AG175" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AH175" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AI175" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.22316669018980423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -13379,19 +13869,23 @@
       <c r="AE176" s="3">
         <v>0.9</v>
       </c>
-      <c r="AF176" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG176" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH176" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="177" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF176" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AG176" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH176" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AI176" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -13463,19 +13957,23 @@
       <c r="AE177" s="3">
         <v>0.3</v>
       </c>
-      <c r="AF177" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG177" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH177" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="178" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF177" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG177" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH177" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI177" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="178" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B178" s="3">
         <v>1.0679312E-2</v>
@@ -13547,19 +14045,23 @@
       <c r="AE178" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF178" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG178" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH178" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF178" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG178" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH178" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI178" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="179" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -13638,10 +14140,14 @@
       <c r="AH179" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="180" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI179" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="180" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -13676,10 +14182,14 @@
       <c r="AF180" s="5"/>
       <c r="AG180" s="5"/>
       <c r="AH180" s="5"/>
-    </row>
-    <row r="181" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI180" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="181" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -13749,19 +14259,23 @@
       <c r="AE181" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF181" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG181" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH181" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="182" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF181" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG181" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH181" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI181" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="182" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="B182" s="3">
         <v>2.0507979999999999E-2</v>
@@ -13833,19 +14347,23 @@
       <c r="AE182" s="3">
         <v>0.5</v>
       </c>
-      <c r="AF182" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG182" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH182" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="183" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF182" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AG182" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH182" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AI182" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -13880,10 +14398,14 @@
       <c r="AF183" s="5"/>
       <c r="AG183" s="5"/>
       <c r="AH183" s="5"/>
-    </row>
-    <row r="184" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI183" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -13956,10 +14478,14 @@
       <c r="AF184" s="5"/>
       <c r="AG184" s="5"/>
       <c r="AH184" s="5"/>
-    </row>
-    <row r="185" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI184" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -13994,10 +14520,14 @@
       <c r="AF185" s="5"/>
       <c r="AG185" s="5"/>
       <c r="AH185" s="5"/>
-    </row>
-    <row r="186" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI185" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -14067,19 +14597,23 @@
       <c r="AE186" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF186" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG186" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH186" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="187" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF186" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG186" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH186" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI186" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="187" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -14152,10 +14686,14 @@
       <c r="AF187" s="5"/>
       <c r="AG187" s="5"/>
       <c r="AH187" s="5"/>
-    </row>
-    <row r="188" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI187" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="188" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>289</v>
+        <v>231</v>
       </c>
       <c r="B188" s="3">
         <v>0.01</v>
@@ -14227,19 +14765,23 @@
       <c r="AE188" s="3">
         <v>2.9</v>
       </c>
-      <c r="AF188" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG188" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH188" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="189" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF188" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG188" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH188" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="AI188" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0987262092942018</v>
+      </c>
+    </row>
+    <row r="189" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -14274,10 +14816,14 @@
       <c r="AF189" s="5"/>
       <c r="AG189" s="5"/>
       <c r="AH189" s="5"/>
-    </row>
-    <row r="190" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI189" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="190" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -14312,10 +14858,14 @@
       <c r="AF190" s="5"/>
       <c r="AG190" s="5"/>
       <c r="AH190" s="5"/>
-    </row>
-    <row r="191" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI190" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -14350,10 +14900,14 @@
       <c r="AF191" s="5"/>
       <c r="AG191" s="5"/>
       <c r="AH191" s="5"/>
-    </row>
-    <row r="192" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI191" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="192" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -14388,10 +14942,14 @@
       <c r="AF192" s="5"/>
       <c r="AG192" s="5"/>
       <c r="AH192" s="5"/>
-    </row>
-    <row r="193" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI192" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="193" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -14426,10 +14984,14 @@
       <c r="AF193" s="5"/>
       <c r="AG193" s="5"/>
       <c r="AH193" s="5"/>
-    </row>
-    <row r="194" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI193" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="194" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -14464,10 +15026,14 @@
       <c r="AF194" s="5"/>
       <c r="AG194" s="5"/>
       <c r="AH194" s="5"/>
-    </row>
-    <row r="195" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI194" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="195" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -14502,10 +15068,14 @@
       <c r="AF195" s="5"/>
       <c r="AG195" s="5"/>
       <c r="AH195" s="5"/>
-    </row>
-    <row r="196" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI195" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="196" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -14540,10 +15110,14 @@
       <c r="AF196" s="5"/>
       <c r="AG196" s="5"/>
       <c r="AH196" s="5"/>
-    </row>
-    <row r="197" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI196" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="197" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -14578,10 +15152,14 @@
       <c r="AF197" s="5"/>
       <c r="AG197" s="5"/>
       <c r="AH197" s="5"/>
-    </row>
-    <row r="198" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI197" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="198" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -14613,19 +15191,23 @@
       <c r="AC198" s="5"/>
       <c r="AD198" s="5"/>
       <c r="AE198" s="5"/>
-      <c r="AF198" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG198" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH198" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="199" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF198" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG198" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH198" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI198" s="5">
+        <f t="shared" ref="AI198:AI261" si="3">LOG(AG198,2.718)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -14660,10 +15242,14 @@
       <c r="AF199" s="5"/>
       <c r="AG199" s="5"/>
       <c r="AH199" s="5"/>
-    </row>
-    <row r="200" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI199" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="200" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -14735,19 +15321,23 @@
       <c r="AE200" s="3">
         <v>0.8</v>
       </c>
-      <c r="AF200" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG200" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH200" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="201" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF200" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AG200" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH200" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AI200" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="201" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -14819,19 +15409,23 @@
       <c r="AE201" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF201" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG201" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH201" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="202" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF201" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG201" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH201" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI201" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="202" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -14866,10 +15460,14 @@
       <c r="AF202" s="5"/>
       <c r="AG202" s="5"/>
       <c r="AH202" s="5"/>
-    </row>
-    <row r="203" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI202" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="203" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -14904,10 +15502,14 @@
       <c r="AF203" s="5"/>
       <c r="AG203" s="5"/>
       <c r="AH203" s="5"/>
-    </row>
-    <row r="204" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI203" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="204" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -14942,10 +15544,14 @@
       <c r="AF204" s="5"/>
       <c r="AG204" s="5"/>
       <c r="AH204" s="5"/>
-    </row>
-    <row r="205" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI204" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="205" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>306</v>
+        <v>241</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -15017,19 +15623,23 @@
       <c r="AE205" s="3">
         <v>1.6</v>
       </c>
-      <c r="AF205" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG205" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH205" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="206" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF205" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AG205" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AH205" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AI205" s="5">
+        <f t="shared" si="3"/>
+        <v>0.47005236628268804</v>
+      </c>
+    </row>
+    <row r="206" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -15099,19 +15709,23 @@
       <c r="AE206" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF206" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG206" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH206" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="207" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF206" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AG206" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH206" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI206" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="207" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -15190,10 +15804,14 @@
       <c r="AH207" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="208" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI207" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="208" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -15266,16 +15884,20 @@
       <c r="AF208" s="3">
         <v>0.06</v>
       </c>
-      <c r="AG208" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH208" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="209" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG208" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AH208" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AI208" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.302823859607281</v>
+      </c>
+    </row>
+    <row r="209" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -15310,10 +15932,14 @@
       <c r="AF209" s="5"/>
       <c r="AG209" s="5"/>
       <c r="AH209" s="5"/>
-    </row>
-    <row r="210" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI209" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="210" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -15385,19 +16011,23 @@
       <c r="AE210" s="3">
         <v>0.6</v>
       </c>
-      <c r="AF210" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG210" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH210" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="211" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF210" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AG210" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AH210" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AI210" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.35671192935510176</v>
+      </c>
+    </row>
+    <row r="211" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -15432,10 +16062,14 @@
       <c r="AF211" s="5"/>
       <c r="AG211" s="5"/>
       <c r="AH211" s="5"/>
-    </row>
-    <row r="212" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI211" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="212" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -15507,19 +16141,23 @@
       <c r="AE212" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="AF212" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="AG212" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH212" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="213" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF212" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="AG212" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="AH212" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="AI212" s="5">
+        <f t="shared" si="3"/>
+        <v>2.8510021055788068</v>
+      </c>
+    </row>
+    <row r="213" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -15554,10 +16192,14 @@
       <c r="AF213" s="5"/>
       <c r="AG213" s="5"/>
       <c r="AH213" s="5"/>
-    </row>
-    <row r="214" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI213" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="214" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="B214" s="3">
         <v>0.01</v>
@@ -15629,19 +16271,23 @@
       <c r="AE214" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH214" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="215" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF214" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG214" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH214" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI214" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="215" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -15720,10 +16366,14 @@
       <c r="AH215" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="216" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI215" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="216" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="B216" s="3">
         <v>6.2390638999999998E-2</v>
@@ -15795,19 +16445,23 @@
       <c r="AE216" s="3">
         <v>1</v>
       </c>
-      <c r="AF216" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG216" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH216" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="217" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF216" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG216" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH216" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI216" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="217" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="3">
@@ -15879,19 +16533,23 @@
       <c r="AE217" s="3">
         <v>1</v>
       </c>
-      <c r="AF217" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG217" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH217" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="218" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF217" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AG217" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH217" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI217" s="5">
+        <f t="shared" si="3"/>
+        <v>9.5320062995572885E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -15926,10 +16584,14 @@
       <c r="AF218" s="5"/>
       <c r="AG218" s="5"/>
       <c r="AH218" s="5"/>
-    </row>
-    <row r="219" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI218" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="219" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -16001,19 +16663,23 @@
       <c r="AE219" s="3">
         <v>25.9</v>
       </c>
-      <c r="AF219" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG219" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH219" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="220" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF219" s="3">
+        <v>25.8</v>
+      </c>
+      <c r="AG219" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="AH219" s="3">
+        <v>26</v>
+      </c>
+      <c r="AI219" s="5">
+        <f t="shared" si="3"/>
+        <v>3.2545804175036479</v>
+      </c>
+    </row>
+    <row r="220" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -16085,19 +16751,23 @@
       <c r="AE220" s="3">
         <v>0.1</v>
       </c>
-      <c r="AF220" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG220" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH220" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="221" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF220" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG220" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH220" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI220" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="221" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -16169,19 +16839,23 @@
       <c r="AE221" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF221" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG221" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH221" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="222" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF221" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG221" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AH221" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AI221" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.91638574666229644</v>
+      </c>
+    </row>
+    <row r="222" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -16216,10 +16890,14 @@
       <c r="AF222" s="5"/>
       <c r="AG222" s="5"/>
       <c r="AH222" s="5"/>
-    </row>
-    <row r="223" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI222" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="223" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -16254,10 +16932,14 @@
       <c r="AF223" s="5"/>
       <c r="AG223" s="5"/>
       <c r="AH223" s="5"/>
-    </row>
-    <row r="224" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI223" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="224" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -16327,19 +17009,23 @@
       <c r="AE224" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF224" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG224" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH224" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="225" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF224" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG224" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH224" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI224" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="225" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="B225" s="3">
         <v>0.01</v>
@@ -16411,19 +17097,23 @@
       <c r="AE225" s="3">
         <v>5.8</v>
       </c>
-      <c r="AF225" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG225" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH225" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="226" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF225" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="AG225" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="AH225" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="AI225" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7580401986688456</v>
+      </c>
+    </row>
+    <row r="226" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -16495,19 +17185,23 @@
       <c r="AE226" s="3">
         <v>1.3</v>
       </c>
-      <c r="AF226" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG226" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH226" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="227" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF226" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="AG226" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AH226" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AI226" s="5">
+        <f t="shared" si="3"/>
+        <v>0.18234046263190515</v>
+      </c>
+    </row>
+    <row r="227" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -16542,10 +17236,14 @@
       <c r="AF227" s="5"/>
       <c r="AG227" s="5"/>
       <c r="AH227" s="5"/>
-    </row>
-    <row r="228" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI227" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="228" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="B228" s="3">
         <v>9.8985219999999999E-3</v>
@@ -16617,19 +17315,23 @@
       <c r="AE228" s="3">
         <v>3.2</v>
       </c>
-      <c r="AF228" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG228" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH228" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="229" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF228" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="AG228" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="AH228" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="AI228" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2528928737796872</v>
+      </c>
+    </row>
+    <row r="229" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -16664,10 +17366,14 @@
       <c r="AF229" s="5"/>
       <c r="AG229" s="5"/>
       <c r="AH229" s="5"/>
-    </row>
-    <row r="230" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI229" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="230" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -16702,10 +17408,14 @@
       <c r="AF230" s="5"/>
       <c r="AG230" s="5"/>
       <c r="AH230" s="5"/>
-    </row>
-    <row r="231" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI230" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="231" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -16740,10 +17450,14 @@
       <c r="AF231" s="5"/>
       <c r="AG231" s="5"/>
       <c r="AH231" s="5"/>
-    </row>
-    <row r="232" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI231" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="232" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -16815,19 +17529,23 @@
       <c r="AE232" s="3">
         <v>1.5</v>
       </c>
-      <c r="AF232" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG232" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH232" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="233" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF232" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AG232" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AH232" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AI232" s="5">
+        <f t="shared" si="3"/>
+        <v>0.40550715282170946</v>
+      </c>
+    </row>
+    <row r="233" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -16906,10 +17624,14 @@
       <c r="AH233" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="234" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI233" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="234" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -16988,10 +17710,14 @@
       <c r="AH234" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="235" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI234" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.8137024534478683</v>
+      </c>
+    </row>
+    <row r="235" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -17026,10 +17752,14 @@
       <c r="AF235" s="5"/>
       <c r="AG235" s="5"/>
       <c r="AH235" s="5"/>
-    </row>
-    <row r="236" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI235" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="236" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -17064,10 +17794,14 @@
       <c r="AF236" s="5"/>
       <c r="AG236" s="5"/>
       <c r="AH236" s="5"/>
-    </row>
-    <row r="237" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI236" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="237" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -17102,10 +17836,14 @@
       <c r="AF237" s="5"/>
       <c r="AG237" s="5"/>
       <c r="AH237" s="5"/>
-    </row>
-    <row r="238" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI237" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="238" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="B238" s="3">
         <v>0.01</v>
@@ -17177,19 +17915,23 @@
       <c r="AE238" s="3">
         <v>6.4</v>
       </c>
-      <c r="AF238" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG238" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH238" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="239" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF238" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="AG238" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH238" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="AI238" s="5">
+        <f t="shared" si="3"/>
+        <v>1.9461119302521792</v>
+      </c>
+    </row>
+    <row r="239" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -17259,19 +18001,23 @@
       <c r="AE239" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF239" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG239" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH239" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="240" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF239" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AG239" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AH239" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AI239" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.22316669018980423</v>
+      </c>
+    </row>
+    <row r="240" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -17306,10 +18052,14 @@
       <c r="AF240" s="5"/>
       <c r="AG240" s="5"/>
       <c r="AH240" s="5"/>
-    </row>
-    <row r="241" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI240" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="241" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -17381,19 +18131,23 @@
       <c r="AE241" s="3">
         <v>0.2</v>
       </c>
-      <c r="AF241" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG241" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH241" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="242" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF241" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AG241" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AH241" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AI241" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.2040976503130794</v>
+      </c>
+    </row>
+    <row r="242" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="B242" s="3">
         <v>3.1764078000000001E-2</v>
@@ -17465,19 +18219,23 @@
       <c r="AE242" s="3">
         <v>0.6</v>
       </c>
-      <c r="AF242" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG242" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH242" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="243" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF242" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AG242" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AH242" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AI242" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.51087859384058709</v>
+      </c>
+    </row>
+    <row r="243" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="B243" s="3">
         <v>9.6973019999999997E-3</v>
@@ -17549,19 +18307,23 @@
       <c r="AE243" s="3">
         <v>0.5</v>
       </c>
-      <c r="AF243" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG243" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH243" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="244" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF243" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AG243" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AH243" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AI243" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.51087859384058709</v>
+      </c>
+    </row>
+    <row r="244" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -17596,10 +18358,14 @@
       <c r="AF244" s="5"/>
       <c r="AG244" s="5"/>
       <c r="AH244" s="5"/>
-    </row>
-    <row r="245" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI244" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="245" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -17672,10 +18438,14 @@
       <c r="AF245" s="5"/>
       <c r="AG245" s="5"/>
       <c r="AH245" s="5"/>
-    </row>
-    <row r="246" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI245" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="246" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -17710,10 +18480,14 @@
       <c r="AF246" s="5"/>
       <c r="AG246" s="5"/>
       <c r="AH246" s="5"/>
-    </row>
-    <row r="247" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI246" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="247" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -17748,10 +18522,14 @@
       <c r="AF247" s="5"/>
       <c r="AG247" s="5"/>
       <c r="AH247" s="5"/>
-    </row>
-    <row r="248" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI247" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="248" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>359</v>
+        <v>284</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -17783,19 +18561,23 @@
       <c r="AC248" s="5"/>
       <c r="AD248" s="5"/>
       <c r="AE248" s="5"/>
-      <c r="AF248" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG248" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH248" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="249" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF248" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AG248" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AH248" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI248" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.69321905647249227</v>
+      </c>
+    </row>
+    <row r="249" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -17830,10 +18612,14 @@
       <c r="AF249" s="5"/>
       <c r="AG249" s="5"/>
       <c r="AH249" s="5"/>
-    </row>
-    <row r="250" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI249" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="250" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -17868,10 +18654,14 @@
       <c r="AF250" s="5"/>
       <c r="AG250" s="5"/>
       <c r="AH250" s="5"/>
-    </row>
-    <row r="251" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI250" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="251" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>362</v>
+        <v>287</v>
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -17906,10 +18696,14 @@
       <c r="AF251" s="5"/>
       <c r="AG251" s="5"/>
       <c r="AH251" s="5"/>
-    </row>
-    <row r="252" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI251" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="252" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -17979,19 +18773,23 @@
       <c r="AE252" s="3">
         <v>0.4</v>
       </c>
-      <c r="AF252" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG252" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH252" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="253" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF252" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AG252" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AH252" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI252" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.69321905647249227</v>
+      </c>
+    </row>
+    <row r="253" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -18026,10 +18824,14 @@
       <c r="AF253" s="5"/>
       <c r="AG253" s="5"/>
       <c r="AH253" s="5"/>
-    </row>
-    <row r="254" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI253" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="254" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -18064,10 +18866,14 @@
       <c r="AF254" s="5"/>
       <c r="AG254" s="5"/>
       <c r="AH254" s="5"/>
-    </row>
-    <row r="255" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI254" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="255" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -18102,10 +18908,14 @@
       <c r="AF255" s="5"/>
       <c r="AG255" s="5"/>
       <c r="AH255" s="5"/>
-    </row>
-    <row r="256" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI255" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="256" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -18137,19 +18947,23 @@
       <c r="AC256" s="5"/>
       <c r="AD256" s="5"/>
       <c r="AE256" s="5"/>
-      <c r="AF256" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG256" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH256" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="257" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF256" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AG256" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AH256" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AI256" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.6096048031347887</v>
+      </c>
+    </row>
+    <row r="257" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -18184,10 +18998,14 @@
       <c r="AF257" s="5"/>
       <c r="AG257" s="5"/>
       <c r="AH257" s="5"/>
-    </row>
-    <row r="258" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI257" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="258" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="B258" s="3">
         <v>0.01</v>
@@ -18259,19 +19077,23 @@
       <c r="AE258" s="3">
         <v>13.6</v>
       </c>
-      <c r="AF258" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG258" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH258" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="259" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF258" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="AG258" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="AH258" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="AI258" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5418655449406748</v>
+      </c>
+    </row>
+    <row r="259" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>373</v>
+        <v>294</v>
       </c>
       <c r="B259" s="3">
         <v>0.01</v>
@@ -18343,19 +19165,23 @@
       <c r="AE259" s="3">
         <v>15.1</v>
       </c>
-      <c r="AF259" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG259" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH259" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="260" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF259" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="AG259" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="AH259" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="AI259" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7215776126430979</v>
+      </c>
+    </row>
+    <row r="260" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>377</v>
+        <v>295</v>
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -18390,10 +19216,14 @@
       <c r="AF260" s="5"/>
       <c r="AG260" s="5"/>
       <c r="AH260" s="5"/>
-    </row>
-    <row r="261" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI260" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="261" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -18427,13 +19257,17 @@
       <c r="AE261" s="5"/>
       <c r="AF261" s="5"/>
       <c r="AG261" s="5"/>
-      <c r="AH261" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="262" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH261" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AI261" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="262" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>379</v>
+        <v>297</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -18468,10 +19302,14 @@
       <c r="AF262" s="5"/>
       <c r="AG262" s="5"/>
       <c r="AH262" s="5"/>
-    </row>
-    <row r="263" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI262" s="5" t="e">
+        <f t="shared" ref="AI262:AI276" si="4">LOG(AG262,2.718)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="263" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -18506,10 +19344,14 @@
       <c r="AF263" s="5"/>
       <c r="AG263" s="5"/>
       <c r="AH263" s="5"/>
-    </row>
-    <row r="264" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI263" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="264" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>381</v>
+        <v>299</v>
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -18544,10 +19386,14 @@
       <c r="AF264" s="5"/>
       <c r="AG264" s="5"/>
       <c r="AH264" s="5"/>
-    </row>
-    <row r="265" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI264" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="265" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -18582,10 +19428,14 @@
       <c r="AF265" s="5"/>
       <c r="AG265" s="5"/>
       <c r="AH265" s="5"/>
-    </row>
-    <row r="266" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI265" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="266" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -18620,10 +19470,14 @@
       <c r="AF266" s="5"/>
       <c r="AG266" s="5"/>
       <c r="AH266" s="5"/>
-    </row>
-    <row r="267" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI266" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="267" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>384</v>
+        <v>301</v>
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -18658,10 +19512,14 @@
       <c r="AF267" s="5"/>
       <c r="AG267" s="5"/>
       <c r="AH267" s="5"/>
-    </row>
-    <row r="268" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI267" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="268" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -18696,10 +19554,14 @@
       <c r="AF268" s="5"/>
       <c r="AG268" s="5"/>
       <c r="AH268" s="5"/>
-    </row>
-    <row r="269" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI268" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="269" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>386</v>
+        <v>303</v>
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -18734,10 +19596,14 @@
       <c r="AF269" s="5"/>
       <c r="AG269" s="5"/>
       <c r="AH269" s="5"/>
-    </row>
-    <row r="270" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI269" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="270" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -18772,10 +19638,14 @@
       <c r="AF270" s="5"/>
       <c r="AG270" s="5"/>
       <c r="AH270" s="5"/>
-    </row>
-    <row r="271" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI270" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="271" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>388</v>
+        <v>304</v>
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -18810,10 +19680,14 @@
       <c r="AF271" s="5"/>
       <c r="AG271" s="5"/>
       <c r="AH271" s="5"/>
-    </row>
-    <row r="272" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI271" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="272" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>389</v>
+        <v>305</v>
       </c>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -18848,10 +19722,14 @@
       <c r="AF272" s="5"/>
       <c r="AG272" s="5"/>
       <c r="AH272" s="5"/>
-    </row>
-    <row r="273" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI272" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="273" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>390</v>
+        <v>306</v>
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -18886,10 +19764,14 @@
       <c r="AF273" s="5"/>
       <c r="AG273" s="5"/>
       <c r="AH273" s="5"/>
-    </row>
-    <row r="274" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI273" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="274" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>391</v>
+        <v>307</v>
       </c>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -18924,10 +19806,14 @@
       <c r="AF274" s="5"/>
       <c r="AG274" s="5"/>
       <c r="AH274" s="5"/>
-    </row>
-    <row r="275" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI274" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="275" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>392</v>
+        <v>308</v>
       </c>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -18962,10 +19848,14 @@
       <c r="AF275" s="5"/>
       <c r="AG275" s="5"/>
       <c r="AH275" s="5"/>
-    </row>
-    <row r="276" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI275" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="276" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -19000,6 +19890,31 @@
       <c r="AF276" s="5"/>
       <c r="AG276" s="5"/>
       <c r="AH276" s="5"/>
+      <c r="AI276" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="277" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI277" s="5"/>
+    </row>
+    <row r="278" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI278" s="5"/>
+    </row>
+    <row r="279" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI279" s="5"/>
+    </row>
+    <row r="280" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI280" s="5"/>
+    </row>
+    <row r="281" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI281" s="5"/>
+    </row>
+    <row r="282" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI282" s="5"/>
+    </row>
+    <row r="283" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AI283" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -19045,7 +19960,7 @@
     <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -19055,10 +19970,10 @@
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="6"/>
@@ -19067,10 +19982,10 @@
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="6"/>
@@ -19079,7 +19994,7 @@
     <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="4"/>
@@ -19097,7 +20012,7 @@
     <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -19107,10 +20022,10 @@
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
@@ -19119,10 +20034,10 @@
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="17" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="6"/>
@@ -19131,10 +20046,10 @@
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="6"/>
@@ -19143,7 +20058,7 @@
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C12" s="22" t="str">
         <f>HYPERLINK("http://www.gapminder.org/gapminder-world/documentation/gd006","http://www.gapminder.org/gapminder-world/documentation/gd006")</f>
@@ -19164,7 +20079,7 @@
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -19174,10 +20089,10 @@
     <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="6"/>
@@ -19186,10 +20101,10 @@
     <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="6"/>
@@ -19207,7 +20122,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="26" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
@@ -19225,7 +20140,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="27" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="6"/>
@@ -19243,7 +20158,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="27" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
@@ -19297,10 +20212,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -19308,13 +20223,13 @@
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8">
         <v>2009</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -19486,7 +20401,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -19504,21 +20419,21 @@
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="21" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B4" s="22" t="str">
         <f>HYPERLINK("http://www.gapminder.org/gapminder-world/documentation/gd006","http://www.gapminder.org/gapminder-world/documentation/gd006")</f>
@@ -19526,21 +20441,21 @@
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="21" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="21" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
@@ -19694,7 +20609,7 @@
     <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="35" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="4"/>
@@ -19712,7 +20627,7 @@
     <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="40" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="4"/>
@@ -19722,10 +20637,10 @@
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="30" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="6"/>
@@ -19734,10 +20649,10 @@
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="30" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="6"/>
@@ -19746,10 +20661,10 @@
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="30" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="6"/>
@@ -19890,10 +20805,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
